--- a/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy-Test_Country_Sponsor.xlsx
+++ b/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy-Test_Country_Sponsor.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="930" yWindow="120" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Address</t>
   </si>
@@ -71,6 +71,24 @@
   </si>
   <si>
     <t>MARTIN MOK</t>
+  </si>
+  <si>
+    <t>DeLuca Jr., William F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brown, malcolm d </t>
+  </si>
+  <si>
+    <t>Sub</t>
+  </si>
+  <si>
+    <t>#11667</t>
+  </si>
+  <si>
+    <t>David C. Kauffman</t>
+  </si>
+  <si>
+    <t>Liang, Cheng Yi</t>
   </si>
 </sst>
 </file>
@@ -462,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF4"/>
+  <dimension ref="A1:BF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,15 +670,95 @@
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
